--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
   <si>
     <t>API Mode</t>
   </si>
@@ -408,6 +408,60 @@
   </si>
   <si>
     <t>RMA-48C5-1-3</t>
+  </si>
+  <si>
+    <t>RMA-MCQ2-001</t>
+  </si>
+  <si>
+    <t>RMA-MCQ2-002</t>
+  </si>
+  <si>
+    <t>RMA-MCQ2-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLgAAM</t>
+  </si>
+  <si>
+    <t>RMA-MCQ2-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLhAAM</t>
+  </si>
+  <si>
+    <t>RMA-MCQ2-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLiAAM</t>
+  </si>
+  <si>
+    <t>RMA-MCQ2-1-3</t>
+  </si>
+  <si>
+    <t>RMA-N3P5-001</t>
+  </si>
+  <si>
+    <t>RMA-N3P5-002</t>
+  </si>
+  <si>
+    <t>RMA-N3P5-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKM0AAM</t>
+  </si>
+  <si>
+    <t>RMA-N3P5-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKM1AAM</t>
+  </si>
+  <si>
+    <t>RMA-N3P5-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKM2AAM</t>
+  </si>
+  <si>
+    <t>RMA-N3P5-1-3</t>
   </si>
 </sst>
 </file>
@@ -417,7 +471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="99" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +491,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -879,7 +1077,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -995,11 +1193,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1073,8 +1307,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="74" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="98" fillId="0" borderId="48" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1862,11 +2120,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.15234375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.421875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.0625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.05859375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1916,10 +2174,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -1928,7 +2186,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1945,10 +2203,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1957,7 +2215,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1974,10 +2232,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1986,7 +2244,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
   <si>
     <t>API Mode</t>
   </si>
@@ -462,6 +462,87 @@
   </si>
   <si>
     <t>RMA-N3P5-1-3</t>
+  </si>
+  <si>
+    <t>RMA-A0G1-001</t>
+  </si>
+  <si>
+    <t>RMA-A0G1-002</t>
+  </si>
+  <si>
+    <t>RMA-A0G1-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKPJAA2</t>
+  </si>
+  <si>
+    <t>RMA-A0G1-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKPKAA2</t>
+  </si>
+  <si>
+    <t>RMA-A0G1-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKPLAA2</t>
+  </si>
+  <si>
+    <t>RMA-A0G1-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ZOJR-001</t>
+  </si>
+  <si>
+    <t>RMA-ZOJR-002</t>
+  </si>
+  <si>
+    <t>RMA-ZOJR-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKQqAAM</t>
+  </si>
+  <si>
+    <t>RMA-ZOJR-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKQrAAM</t>
+  </si>
+  <si>
+    <t>RMA-ZOJR-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKQsAAM</t>
+  </si>
+  <si>
+    <t>RMA-ZOJR-1-3</t>
+  </si>
+  <si>
+    <t>RMA-BCXO-001</t>
+  </si>
+  <si>
+    <t>RMA-BCXO-002</t>
+  </si>
+  <si>
+    <t>RMA-BCXO-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRFAA2</t>
+  </si>
+  <si>
+    <t>RMA-BCXO-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRGAA2</t>
+  </si>
+  <si>
+    <t>RMA-BCXO-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRHAA2</t>
+  </si>
+  <si>
+    <t>RMA-BCXO-1-3</t>
   </si>
 </sst>
 </file>
@@ -471,7 +552,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="99" x14ac:knownFonts="1">
+  <fonts count="135" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +572,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1077,7 +1374,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1229,11 +1526,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="135">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1331,8 +1682,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="98" fillId="0" borderId="48" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="134" fillId="0" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2120,11 +2507,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.6015625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.05859375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.87890625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2174,10 +2561,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2186,7 +2573,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2203,10 +2590,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2215,7 +2602,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2232,10 +2619,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2244,7 +2631,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="194">
   <si>
     <t>API Mode</t>
   </si>
@@ -543,6 +543,87 @@
   </si>
   <si>
     <t>RMA-BCXO-1-3</t>
+  </si>
+  <si>
+    <t>RMA-D6TP-001</t>
+  </si>
+  <si>
+    <t>RMA-D6TP-002</t>
+  </si>
+  <si>
+    <t>RMA-D6TP-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYbAAM</t>
+  </si>
+  <si>
+    <t>RMA-D6TP-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYcAAM</t>
+  </si>
+  <si>
+    <t>RMA-D6TP-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYdAAM</t>
+  </si>
+  <si>
+    <t>RMA-D6TP-1-3</t>
+  </si>
+  <si>
+    <t>RMA-IMQC-001</t>
+  </si>
+  <si>
+    <t>RMA-IMQC-002</t>
+  </si>
+  <si>
+    <t>RMA-IMQC-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYvAAM</t>
+  </si>
+  <si>
+    <t>RMA-IMQC-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYwAAM</t>
+  </si>
+  <si>
+    <t>RMA-IMQC-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYxAAM</t>
+  </si>
+  <si>
+    <t>RMA-IMQC-1-3</t>
+  </si>
+  <si>
+    <t>RMA-08SI-001</t>
+  </si>
+  <si>
+    <t>RMA-08SI-002</t>
+  </si>
+  <si>
+    <t>RMA-08SI-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZZAA2</t>
+  </si>
+  <si>
+    <t>RMA-08SI-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZaAAM</t>
+  </si>
+  <si>
+    <t>RMA-08SI-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZbAAM</t>
+  </si>
+  <si>
+    <t>RMA-08SI-1-3</t>
   </si>
 </sst>
 </file>
@@ -552,7 +633,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="135" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +653,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1374,7 +1671,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1580,11 +1877,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="171">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1718,8 +2069,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="134" fillId="0" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="170" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2507,11 +2894,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.6015625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.4296875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.87890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.25" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2561,10 +2948,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2573,7 +2960,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2590,10 +2977,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2602,7 +2989,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2619,10 +3006,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2631,7 +3018,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
